--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-allergyintolerance.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-allergyintolerance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T12:54:55+00:00</t>
+    <t>2024-05-27T13:06:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -773,7 +773,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(http://hl7.at/fhir/HL7ATCoreProfiles/4.0.1/StructureDefinition/at-core-practitioner|http://hl7.at/fhir/HL7ATCoreProfiles/4.0.1/StructureDefinition/at-core-practitionerRole|http://hl7.at/fhir/HL7ATCoreProfiles/4.0.1/StructureDefinition/at-core-patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -796,7 +796,7 @@
 Informant</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson|Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(http://hl7.at/fhir/HL7ATCoreProfiles/4.0.1/StructureDefinition/at-core-patient|RelatedPerson|http://hl7.at/fhir/HL7ATCoreProfiles/4.0.1/StructureDefinition/at-core-practitioner|http://hl7.at/fhir/HL7ATCoreProfiles/4.0.1/StructureDefinition/at-core-practitionerRole)
 </t>
   </si>
   <si>
@@ -1362,7 +1362,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="81.6328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="248.68359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-allergyintolerance.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-allergyintolerance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T13:06:19+00:00</t>
+    <t>2024-05-27T13:23:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -687,7 +687,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.at/fhir/HL7ATCoreProfiles/4.0.1/StructureDefinition/at-core-patient)
+    <t xml:space="preserve">Reference(https://fhir.hl7.at/elga-austrianpatientsummary-r4/StructureDefinition/at-ips-patient)
 </t>
   </si>
   <si>
@@ -773,7 +773,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.at/fhir/HL7ATCoreProfiles/4.0.1/StructureDefinition/at-core-practitioner|http://hl7.at/fhir/HL7ATCoreProfiles/4.0.1/StructureDefinition/at-core-practitionerRole|http://hl7.at/fhir/HL7ATCoreProfiles/4.0.1/StructureDefinition/at-core-patient|RelatedPerson)
+    <t xml:space="preserve">Reference(https://fhir.hl7.at/elga-austrianpatientsummary-r4/StructureDefinition/at-ips-practitioner|https://fhir.hl7.at/elga-austrianpatientsummary-r4/StructureDefinition/at-ips-practitionerrole|https://fhir.hl7.at/elga-austrianpatientsummary-r4/StructureDefinition/at-ips-patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -796,7 +796,7 @@
 Informant</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.at/fhir/HL7ATCoreProfiles/4.0.1/StructureDefinition/at-core-patient|RelatedPerson|http://hl7.at/fhir/HL7ATCoreProfiles/4.0.1/StructureDefinition/at-core-practitioner|http://hl7.at/fhir/HL7ATCoreProfiles/4.0.1/StructureDefinition/at-core-practitionerRole)
+    <t xml:space="preserve">Reference(https://fhir.hl7.at/elga-austrianpatientsummary-r4/StructureDefinition/at-ips-patient|RelatedPerson|https://fhir.hl7.at/elga-austrianpatientsummary-r4/StructureDefinition/at-ips-practitioner|https://fhir.hl7.at/elga-austrianpatientsummary-r4/StructureDefinition/at-ips-practitionerrole)
 </t>
   </si>
   <si>
@@ -1362,7 +1362,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="248.68359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-allergyintolerance.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-allergyintolerance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T13:23:31+00:00</t>
+    <t>2024-05-27T13:32:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-allergyintolerance.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-allergyintolerance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T13:32:38+00:00</t>
+    <t>2024-05-28T08:43:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-allergyintolerance.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-allergyintolerance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T08:43:22+00:00</t>
+    <t>2024-05-28T09:33:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-allergyintolerance.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-allergyintolerance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T09:33:56+00:00</t>
+    <t>2024-05-28T13:59:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -773,7 +773,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.at/elga-austrianpatientsummary-r4/StructureDefinition/at-ips-practitioner|https://fhir.hl7.at/elga-austrianpatientsummary-r4/StructureDefinition/at-ips-practitionerrole|https://fhir.hl7.at/elga-austrianpatientsummary-r4/StructureDefinition/at-ips-patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -796,7 +796,7 @@
 Informant</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.at/elga-austrianpatientsummary-r4/StructureDefinition/at-ips-patient|RelatedPerson|https://fhir.hl7.at/elga-austrianpatientsummary-r4/StructureDefinition/at-ips-practitioner|https://fhir.hl7.at/elga-austrianpatientsummary-r4/StructureDefinition/at-ips-practitionerrole)
+    <t xml:space="preserve">Reference(Patient|RelatedPerson|Practitioner|PractitionerRole)
 </t>
   </si>
   <si>
@@ -1362,7 +1362,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="88.78515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-allergyintolerance.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-allergyintolerance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T13:59:53+00:00</t>
+    <t>2024-05-29T06:58:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This AT IPS profile for the AllergyIntolerance resource is derived from the general AllergyIntolerance resource in absence of a corresponding profile in the HL7® Austria FHIR® Core Implementation Guide and also ensures IPS conformity via the IPS profile referenced by the so-called imposeProfile extension.</t>
+    <t>This AT IPS profile for the AllergyIntolerance resource is derived from the general AllergyIntolerance resource in absence of a corresponding profile in the HL7® Austria FHIR® Core implementation guide and also ensures IPS conformity via the IPS profile referenced by the so-called [`imposeProfile`](http://hl7.org/fhir/StructureDefinition/structuredefinition-imposeProfile) extension.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-allergyintolerance.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-allergyintolerance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T06:58:17+00:00</t>
+    <t>2024-05-29T12:02:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-allergyintolerance.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-allergyintolerance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T12:02:27+00:00</t>
+    <t>2024-06-19T12:04:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-allergyintolerance.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-allergyintolerance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T12:04:55+00:00</t>
+    <t>2024-10-16T10:23:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
